--- a/myfile.xlsx
+++ b/myfile.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ToDo List" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,10 +23,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Time Needed</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Write Python script</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Cook dinner</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Finish debugging app</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +115,126 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'ToDo List'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E273-41A8-856F-BBACB3A68CF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476256</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +500,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>SUM(D2:D4)</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>